--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -620,6 +620,19 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>自来水管接头X4</t>
+    <rPh sb="0" eb="1">
+      <t>zi'lai'shui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'tou</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -864,7 +877,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,25 +968,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,10 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1544,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1558,19 +1574,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1608,28 +1624,28 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="40">
         <v>43190</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="34">
         <v>0</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="34">
         <v>1</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="34">
         <v>1</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="34">
         <v>1</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="34">
         <v>1</v>
       </c>
       <c r="I3" s="29"/>
@@ -1646,16 +1662,16 @@
       <c r="W3" s="23"/>
     </row>
     <row r="4" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -1670,13 +1686,13 @@
       <c r="W4" s="23"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="39">
         <v>43191</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="37">
         <v>0</v>
       </c>
       <c r="D5" s="28">
@@ -1688,10 +1704,10 @@
       <c r="F5" s="28">
         <v>0.5</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="37">
         <v>1</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="37">
         <v>0</v>
       </c>
       <c r="I5" s="30"/>
@@ -1708,11 +1724,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="28">
         <v>0</v>
       </c>
@@ -1722,8 +1738,8 @@
       <c r="F6" s="28">
         <v>0</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -1738,13 +1754,13 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="40">
         <v>43192</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="27">
@@ -1756,10 +1772,10 @@
       <c r="F7" s="27">
         <v>0</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="34">
         <v>1</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="34">
         <v>0</v>
       </c>
       <c r="I7" s="29"/>
@@ -1776,11 +1792,11 @@
       <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="27">
         <v>0.5</v>
       </c>
@@ -1790,8 +1806,8 @@
       <c r="F8" s="27">
         <v>0.5</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -1806,34 +1822,34 @@
       <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="39">
         <v>43193</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="38">
         <v>0</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>1</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>1</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>1</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>1</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>1</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>1</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>1</v>
       </c>
       <c r="K9" s="30"/>
@@ -1848,18 +1864,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="30"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1872,34 +1888,34 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="40">
         <v>43194</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="34">
         <v>1</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="34">
         <v>1</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="34">
         <v>1</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="34">
         <v>1</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="34">
         <v>1</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="34">
         <v>1</v>
       </c>
       <c r="K11" s="29"/>
@@ -1914,18 +1930,18 @@
       <c r="W11" s="23"/>
     </row>
     <row r="12" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="29"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
@@ -1938,7 +1954,7 @@
       <c r="W12" s="23"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="39">
         <v>43195</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -1980,7 +1996,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="28" t="s">
         <v>17</v>
       </c>
@@ -2020,34 +2036,34 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="A15" s="40">
         <v>43196</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="34">
         <v>1</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="34">
         <v>1</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="34">
         <v>1</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="34">
         <v>1</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="34">
         <v>1</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="34">
         <v>1</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="34">
         <v>1</v>
       </c>
       <c r="K15" s="29"/>
@@ -2062,18 +2078,18 @@
       <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="29"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
@@ -2086,34 +2102,34 @@
       <c r="W16" s="23"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="39">
         <v>43197</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="37">
         <v>0</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>1</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <v>1</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>1</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="37">
         <v>0</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <v>1</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>1</v>
       </c>
       <c r="K17" s="30">
@@ -2130,18 +2146,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="30">
         <v>0.5</v>
       </c>
@@ -2156,7 +2172,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
+      <c r="A19" s="40">
         <v>43198</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2165,28 +2181,28 @@
       <c r="C19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="34">
         <v>1</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="34">
         <v>1</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="34">
         <v>1</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="34">
         <v>1</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="34">
         <v>1</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="34">
         <v>1</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="34">
         <v>1</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="34">
         <v>1</v>
       </c>
       <c r="O19" s="23"/>
@@ -2200,19 +2216,19 @@
       <c r="W19" s="23"/>
     </row>
     <row r="20" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="27"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
@@ -2224,37 +2240,37 @@
       <c r="W20" s="23"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="39">
         <v>43199</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <v>1</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <v>1</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>1</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <v>1</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>1</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <v>1</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <v>1</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="35">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
@@ -2268,19 +2284,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="28"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2292,35 +2308,35 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
+      <c r="A23" s="40">
         <v>43200</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="32">
+      <c r="D23" s="34">
         <v>1</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="34">
         <v>1</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="34">
         <v>1</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="34">
         <v>1</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="34">
         <v>1</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="34">
         <v>1</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="34">
         <v>1</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="34">
         <v>1</v>
       </c>
       <c r="O23" s="23"/>
@@ -2334,19 +2350,19 @@
       <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
@@ -2358,21 +2374,37 @@
       <c r="W24" s="23"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="39">
         <v>43201</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="D25" s="35">
+        <v>1</v>
+      </c>
+      <c r="E25" s="35">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35">
+        <v>1</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1</v>
+      </c>
+      <c r="I25" s="35">
+        <v>1</v>
+      </c>
+      <c r="J25" s="35">
+        <v>1</v>
+      </c>
+      <c r="K25" s="35">
+        <v>1</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2384,19 +2416,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2408,7 +2440,7 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
+      <c r="A27" s="40">
         <v>43202</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2434,7 +2466,7 @@
       <c r="W27" s="23"/>
     </row>
     <row r="28" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
       </c>
@@ -2458,7 +2490,7 @@
       <c r="W28" s="23"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="39">
         <v>43203</v>
       </c>
       <c r="B29" s="28" t="s">
@@ -2484,7 +2516,7 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="28" t="s">
         <v>17</v>
       </c>
@@ -2508,7 +2540,7 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33">
+      <c r="A31" s="40">
         <v>43204</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2534,7 +2566,7 @@
       <c r="W31" s="23"/>
     </row>
     <row r="32" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="27" t="s">
         <v>17</v>
       </c>
@@ -2558,7 +2590,7 @@
       <c r="W32" s="23"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+      <c r="A33" s="39">
         <v>43205</v>
       </c>
       <c r="B33" s="28" t="s">
@@ -2584,7 +2616,7 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="28" t="s">
         <v>17</v>
       </c>
@@ -2608,7 +2640,7 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
+      <c r="A35" s="40">
         <v>43206</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2634,7 +2666,7 @@
       <c r="W35" s="23"/>
     </row>
     <row r="36" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="27" t="s">
         <v>17</v>
       </c>
@@ -2658,7 +2690,7 @@
       <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
+      <c r="A37" s="39">
         <v>43207</v>
       </c>
       <c r="B37" s="28" t="s">
@@ -2684,7 +2716,7 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="28" t="s">
         <v>17</v>
       </c>
@@ -2708,7 +2740,7 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
+      <c r="A39" s="40">
         <v>43208</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2734,7 +2766,7 @@
       <c r="W39" s="23"/>
     </row>
     <row r="40" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="27" t="s">
         <v>17</v>
       </c>
@@ -2758,7 +2790,7 @@
       <c r="W40" s="23"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+      <c r="A41" s="39">
         <v>43209</v>
       </c>
       <c r="B41" s="28" t="s">
@@ -2784,7 +2816,7 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="28" t="s">
         <v>17</v>
       </c>
@@ -2808,7 +2840,7 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="33">
+      <c r="A43" s="40">
         <v>43210</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2834,7 +2866,7 @@
       <c r="W43" s="23"/>
     </row>
     <row r="44" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="27" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2890,7 @@
       <c r="W44" s="23"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+      <c r="A45" s="39">
         <v>43211</v>
       </c>
       <c r="B45" s="28" t="s">
@@ -2884,7 +2916,7 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="28" t="s">
         <v>17</v>
       </c>
@@ -2908,7 +2940,7 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33">
+      <c r="A47" s="40">
         <v>43212</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -2934,7 +2966,7 @@
       <c r="W47" s="23"/>
     </row>
     <row r="48" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="27" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2990,7 @@
       <c r="W48" s="23"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
+      <c r="A49" s="39">
         <v>43213</v>
       </c>
       <c r="B49" s="28" t="s">
@@ -2984,7 +3016,7 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="28" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3040,7 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33">
+      <c r="A51" s="40">
         <v>43214</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3034,7 +3066,7 @@
       <c r="W51" s="23"/>
     </row>
     <row r="52" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="27" t="s">
         <v>17</v>
       </c>
@@ -3058,7 +3090,7 @@
       <c r="W52" s="23"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
+      <c r="A53" s="39">
         <v>43215</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -3084,7 +3116,7 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="28" t="s">
         <v>17</v>
       </c>
@@ -3108,7 +3140,7 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="33">
+      <c r="A55" s="40">
         <v>43216</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3134,7 +3166,7 @@
       <c r="W55" s="23"/>
     </row>
     <row r="56" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="27" t="s">
         <v>17</v>
       </c>
@@ -3158,7 +3190,7 @@
       <c r="W56" s="23"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+      <c r="A57" s="39">
         <v>43217</v>
       </c>
       <c r="B57" s="28" t="s">
@@ -3184,7 +3216,7 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="28" t="s">
         <v>17</v>
       </c>
@@ -3208,7 +3240,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="33">
+      <c r="A59" s="40">
         <v>43218</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -3234,7 +3266,7 @@
       <c r="W59" s="23"/>
     </row>
     <row r="60" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="27" t="s">
         <v>17</v>
       </c>
@@ -3258,7 +3290,7 @@
       <c r="W60" s="23"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
+      <c r="A61" s="39">
         <v>43219</v>
       </c>
       <c r="B61" s="28" t="s">
@@ -3284,7 +3316,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="28" t="s">
         <v>17</v>
       </c>
@@ -3308,7 +3340,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="33">
+      <c r="A63" s="40">
         <v>43220</v>
       </c>
       <c r="B63" s="27" t="s">
@@ -3334,7 +3366,7 @@
       <c r="W63" s="23"/>
     </row>
     <row r="64" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="27" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5117,99 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="108">
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
@@ -5102,90 +5226,6 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5197,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5215,17 +5255,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5260,7 +5300,7 @@
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="46">
         <v>43191</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -5279,7 +5319,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="E4" s="44"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
@@ -5298,7 +5338,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="16" t="s">
         <v>7</v>
       </c>
@@ -5334,7 +5374,7 @@
         <v>95</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="E7" s="45">
+      <c r="E7" s="47">
         <v>43193</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -5355,7 +5395,7 @@
       <c r="C8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="12" t="s">
         <v>45</v>
       </c>
@@ -5372,7 +5412,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="E9" s="47">
+      <c r="E9" s="49">
         <v>43196</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -5391,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="E10" s="48"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="8" t="s">
         <v>52</v>
       </c>
@@ -5410,7 +5450,7 @@
       <c r="C11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="41">
         <v>43197</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5429,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="12" t="s">
         <v>55</v>
       </c>
@@ -5444,7 +5484,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="12" t="s">
         <v>56</v>
       </c>
@@ -5476,7 +5516,7 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
-      <c r="E15" s="55">
+      <c r="E15" s="33">
         <v>43200</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -5493,9 +5533,15 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="56">
+        <v>43201</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="8">
+        <v>45</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -5774,7 +5820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -5792,17 +5838,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6201,17 +6247,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -6249,7 +6295,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -6274,7 +6320,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="52"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
@@ -6297,7 +6343,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="55" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -6322,7 +6368,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="53"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="19" t="s">
         <v>37</v>
       </c>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -633,6 +633,60 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>肉(210) 、蔬菜(123)、味精鸡蛋(27)</t>
+    <rPh sb="0" eb="1">
+      <t>rou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu'cai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>we'jing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自来水大卡头X1</t>
+    <rPh sb="0" eb="1">
+      <t>zi'lai'shui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'qia'tou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卡头、自来水水管、自来水管接头</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'ka'tou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'lai'shui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shui'guan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi'lai'shui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie'tou</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -877,7 +931,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,23 +975,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,9 +994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,13 +1013,25 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,29 +1040,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,14 +1082,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1050,7 +1110,7 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1157,8 +1217,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1171,17 +1231,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1194,18 +1248,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1218,13 +1266,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1274,7 +1319,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C32" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" headerRowCellStyle="好">
   <tableColumns count="3">
     <tableColumn id="1" name="日期" dataDxfId="7"/>
     <tableColumn id="2" name="买菜金额/元" dataDxfId="6"/>
@@ -1560,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,92 +1661,92 @@
       <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40">
+    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
         <v>43190</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="35">
         <v>0</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="35">
         <v>1</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="35">
         <v>1</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="35">
         <v>1</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="35">
         <v>1</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-    </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="27" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+    </row>
+    <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>43191</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="37">
         <v>0</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="24">
         <v>0.5</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="24">
         <v>0.5</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="24">
         <v>0.5</v>
       </c>
       <c r="G5" s="37">
@@ -1710,9 +1755,9 @@
       <c r="H5" s="37">
         <v>0</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1725,24 +1770,24 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="37"/>
-      <c r="D6" s="28">
+      <c r="D6" s="24">
         <v>0</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="24">
         <v>0</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1753,106 +1798,106 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
+    <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
         <v>43192</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="23">
         <v>0</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="23">
         <v>0</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="35">
         <v>1</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="35">
         <v>0</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-    </row>
-    <row r="8" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="27" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="27">
+      <c r="C8" s="35"/>
+      <c r="D8" s="23">
         <v>0.5</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="23">
         <v>0.5</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="23">
         <v>0.5</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="39">
         <v>43193</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="34">
         <v>0</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>1</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>1</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="33">
         <v>1</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="33">
         <v>1</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>1</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="26"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1865,18 +1910,18 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1887,104 +1932,104 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
+    <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
         <v>43194</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="35">
         <v>1</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="35">
         <v>1</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="35">
         <v>1</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="35">
         <v>1</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="35">
         <v>1</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="35">
         <v>1</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="35">
         <v>1</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-    </row>
-    <row r="12" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="27" t="s">
+      <c r="K11" s="25"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+    </row>
+    <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="29"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="25"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="39">
         <v>43195</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="24">
         <v>0.5</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <v>0.5</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="24">
         <v>0.5</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="24">
         <v>0.5</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="24">
         <v>0.5</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="24">
         <v>0.5</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="24">
         <v>0.5</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="26"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1997,34 +2042,34 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>0</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="24">
         <v>0</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="24">
         <v>0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="24">
         <v>0</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="24">
         <v>0</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="26">
         <v>0</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="K14" s="30"/>
+      <c r="K14" s="26"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -2035,104 +2080,104 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
+    <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38">
         <v>43196</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="35">
         <v>0</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="35">
         <v>1</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="35">
         <v>1</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="35">
         <v>1</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="35">
         <v>1</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="35">
         <v>1</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="35">
         <v>1</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <v>1</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-    </row>
-    <row r="16" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="27" t="s">
+      <c r="K15" s="25"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+    </row>
+    <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="29"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="25"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>43197</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="37">
         <v>0</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <v>1</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="33">
         <v>1</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="33">
         <v>1</v>
       </c>
       <c r="H17" s="37">
         <v>0</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="33">
         <v>1</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>1</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="26">
         <v>0</v>
       </c>
       <c r="O17" s="2"/>
@@ -2147,18 +2192,18 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="30">
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="26">
         <v>0.5</v>
       </c>
       <c r="O18" s="2"/>
@@ -2171,106 +2216,106 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40">
+    <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38">
         <v>43198</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="35">
         <v>1</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="35">
         <v>1</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="35">
         <v>1</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="35">
         <v>1</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="35">
         <v>1</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="35">
         <v>1</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="35">
         <v>1</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="35">
         <v>1</v>
       </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="27" t="s">
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+    </row>
+    <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="39">
         <v>43199</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>1</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>1</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>1</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>1</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>1</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <v>1</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>1</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
@@ -2285,18 +2330,18 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2307,102 +2352,102 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
+    <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38">
         <v>43200</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="34">
+      <c r="C23" s="23"/>
+      <c r="D23" s="35">
         <v>1</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="35">
         <v>1</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="35">
         <v>1</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="35">
         <v>1</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="35">
         <v>1</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="35">
         <v>1</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="35">
         <v>1</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="35">
         <v>1</v>
       </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-    </row>
-    <row r="24" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="27" t="s">
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+    </row>
+    <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>43201</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="35">
+      <c r="C25" s="24"/>
+      <c r="D25" s="33">
         <v>1</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="33">
         <v>1</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="33">
         <v>1</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="33">
         <v>1</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="33">
         <v>1</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="33">
         <v>1</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>1</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="33">
         <v>1</v>
       </c>
       <c r="O25" s="2"/>
@@ -2417,18 +2462,18 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2439,72 +2484,104 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40">
+    <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38">
         <v>43202</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-    </row>
-    <row r="28" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="27" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="35">
+        <v>1</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1</v>
+      </c>
+      <c r="G27" s="35">
+        <v>1</v>
+      </c>
+      <c r="H27" s="35">
+        <v>1</v>
+      </c>
+      <c r="I27" s="35">
+        <v>1</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <v>1</v>
+      </c>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+    </row>
+    <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>43203</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1</v>
+      </c>
+      <c r="F29" s="33">
+        <v>1</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+      <c r="H29" s="33">
+        <v>1</v>
+      </c>
+      <c r="I29" s="33">
+        <v>1</v>
+      </c>
+      <c r="J29" s="34">
+        <v>0</v>
+      </c>
+      <c r="K29" s="33">
+        <v>1</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2517,18 +2594,18 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="33"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2539,72 +2616,104 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40">
+    <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38">
         <v>43204</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-    </row>
-    <row r="32" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="27" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="35">
+        <v>0</v>
+      </c>
+      <c r="E31" s="35">
+        <v>1</v>
+      </c>
+      <c r="F31" s="35">
+        <v>1</v>
+      </c>
+      <c r="G31" s="35">
+        <v>1</v>
+      </c>
+      <c r="H31" s="35">
+        <v>1</v>
+      </c>
+      <c r="I31" s="35">
+        <v>1</v>
+      </c>
+      <c r="J31" s="35">
+        <v>0</v>
+      </c>
+      <c r="K31" s="35">
+        <v>1</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+    </row>
+    <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>43205</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="57">
+        <v>1</v>
+      </c>
+      <c r="F33" s="57">
+        <v>1</v>
+      </c>
+      <c r="G33" s="57">
+        <v>1</v>
+      </c>
+      <c r="H33" s="57">
+        <v>1</v>
+      </c>
+      <c r="I33" s="57">
+        <v>1</v>
+      </c>
+      <c r="J33" s="55">
+        <v>0</v>
+      </c>
+      <c r="K33" s="57">
+        <v>1</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2617,18 +2726,18 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="58"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2639,72 +2748,72 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40">
+    <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38">
         <v>43206</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-    </row>
-    <row r="36" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="27" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+    </row>
+    <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="39">
         <v>43207</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2717,18 +2826,18 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2739,72 +2848,72 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
+    <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
         <v>43208</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-    </row>
-    <row r="40" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
-      <c r="B40" s="27" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+    </row>
+    <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <v>43209</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -2817,18 +2926,18 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -2839,72 +2948,72 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40">
+    <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="38">
         <v>43210</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-    </row>
-    <row r="44" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="27" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+    </row>
+    <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
+      <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="39">
         <v>43211</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -2917,18 +3026,18 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -2939,72 +3048,72 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="40">
+    <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="38">
         <v>43212</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-    </row>
-    <row r="48" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="27" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+    </row>
+    <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38"/>
+      <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="39">
         <v>43213</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3017,18 +3126,18 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3039,72 +3148,72 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40">
+    <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="38">
         <v>43214</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-    </row>
-    <row r="52" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="27" t="s">
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+    </row>
+    <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
+      <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="39">
         <v>43215</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3117,18 +3226,18 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3139,72 +3248,72 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40">
+    <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="38">
         <v>43216</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-    </row>
-    <row r="56" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="27" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+    </row>
+    <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="38"/>
+      <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="39">
         <v>43217</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3217,18 +3326,18 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -3239,72 +3348,72 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="40">
+    <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="38">
         <v>43218</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-    </row>
-    <row r="60" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
-      <c r="B60" s="27" t="s">
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+    </row>
+    <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="38"/>
+      <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="39">
         <v>43219</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -3317,18 +3426,18 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -3339,55 +3448,55 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="40">
+    <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="38">
         <v>43220</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-    </row>
-    <row r="64" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="27" t="s">
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+    </row>
+    <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="38"/>
+      <c r="B64" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
@@ -3447,8 +3556,8 @@
       <c r="W67" s="2"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -5117,21 +5226,40 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
+  <mergeCells count="140">
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A63:A64"/>
@@ -5153,12 +5281,6 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -5175,9 +5297,26 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
@@ -5188,13 +5327,12 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
@@ -5210,22 +5348,25 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5237,35 +5378,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="33.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5277,6 +5419,7 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5294,36 +5437,38 @@
       <c r="A3" s="10">
         <v>43191</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="30">
         <v>335</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="46">
+      <c r="D3" s="2"/>
+      <c r="E3" s="44">
         <v>43191</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>460</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43192</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="31">
         <v>110</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>210</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -5334,34 +5479,36 @@
       <c r="A5" s="10">
         <v>43193</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="30">
         <v>78</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>180</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43194</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="31">
         <v>0</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="9">
         <v>43192</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>85</v>
       </c>
       <c r="H6" s="9"/>
@@ -5370,355 +5517,401 @@
       <c r="A7" s="10">
         <v>43195</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="30">
         <v>95</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="E7" s="47">
+      <c r="C7" s="30"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="45">
         <v>43193</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="30">
         <v>30</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43196</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="31">
         <v>173</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="30">
         <v>75</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>43197</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="30">
         <v>69</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="E9" s="49">
+      <c r="C9" s="30"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="47">
         <v>43196</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="31">
         <v>240</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43198</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="31">
         <v>0</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="31">
         <v>380</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>43199</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="30">
         <v>71</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="41">
+      <c r="D11" s="2"/>
+      <c r="E11" s="40">
         <v>43197</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="30">
         <v>10</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43200</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="31">
         <v>0</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="42"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="30">
         <v>102</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>43201</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="12" t="s">
+      <c r="B13" s="30">
+        <v>0</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="30">
         <v>240</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43202</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="31">
+      <c r="B14" s="31">
+        <v>0</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7">
         <v>43199</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="31">
         <v>350</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>43203</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="E15" s="33">
+      <c r="B15" s="30">
+        <v>0</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="10">
         <v>43200</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="30">
         <v>95</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43204</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="56">
+      <c r="B16" s="31">
+        <v>360</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="32">
         <v>43201</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="31">
         <v>45</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>43205</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="40">
+        <v>43205</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="30">
+        <v>240</v>
+      </c>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43206</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="30">
+        <v>100</v>
+      </c>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>43207</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43208</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>43209</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43210</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>43211</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43212</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>43213</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43214</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>43215</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43216</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>43217</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43218</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>43219</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43220</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="43" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
@@ -5800,7 +5993,8 @@
       <c r="A73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:H1"/>
@@ -5838,17 +6032,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="E1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5896,7 +6090,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <v>43195</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -6247,17 +6441,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -6290,19 +6484,19 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="N3" s="2"/>
@@ -6315,17 +6509,17 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="N4" s="2"/>
@@ -6338,19 +6532,19 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="N5" s="2"/>
@@ -6363,17 +6557,17 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="N6" s="2"/>
@@ -6386,7 +6580,7 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="11"/>
@@ -6411,7 +6605,7 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="5"/>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -1025,25 +1025,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,18 +1101,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,19 +1619,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1669,7 +1669,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>43190</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1707,7 +1707,7 @@
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
@@ -1731,13 +1731,13 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>43191</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="39">
         <v>0</v>
       </c>
       <c r="D5" s="24">
@@ -1749,10 +1749,10 @@
       <c r="F5" s="24">
         <v>0.5</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="39">
         <v>1</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="39">
         <v>0</v>
       </c>
       <c r="I5" s="26"/>
@@ -1769,11 +1769,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -1783,8 +1783,8 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -1799,7 +1799,7 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>43192</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -1837,7 +1837,7 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
@@ -1867,34 +1867,34 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>43193</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="43">
         <v>0</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="36">
         <v>1</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="36">
         <v>1</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="36">
         <v>1</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <v>1</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="36">
         <v>1</v>
       </c>
       <c r="K9" s="26"/>
@@ -1909,18 +1909,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1933,7 +1933,7 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>43194</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -1975,7 +1975,7 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="A13" s="38">
         <v>43195</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -2041,7 +2041,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>43196</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -2123,7 +2123,7 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
@@ -2147,34 +2147,34 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="39">
+      <c r="A17" s="38">
         <v>43197</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="39">
         <v>0</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="36">
         <v>1</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="36">
         <v>1</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="36">
         <v>1</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="39">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="36">
         <v>1</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="36">
         <v>1</v>
       </c>
       <c r="K17" s="26">
@@ -2191,18 +2191,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="26">
         <v>0.5</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>43198</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2261,7 +2261,7 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="39">
+      <c r="A21" s="38">
         <v>43199</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -2294,28 +2294,28 @@
       <c r="C21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="36">
         <v>1</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="36">
         <v>1</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="36">
         <v>1</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="36">
         <v>1</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="36">
         <v>1</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="36">
         <v>1</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="36">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
@@ -2329,19 +2329,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2353,7 +2353,7 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>43200</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2395,7 +2395,7 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
@@ -2419,35 +2419,35 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="39">
+      <c r="A25" s="38">
         <v>43201</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="33">
+      <c r="D25" s="36">
         <v>1</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="36">
         <v>1</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="36">
         <v>1</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="36">
         <v>1</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="36">
         <v>1</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="36">
         <v>1</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="36">
         <v>1</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="36">
         <v>1</v>
       </c>
       <c r="O25" s="2"/>
@@ -2461,19 +2461,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2485,7 +2485,7 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
+      <c r="A27" s="37">
         <v>43202</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -2527,7 +2527,7 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
@@ -2551,35 +2551,35 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="39">
+      <c r="A29" s="38">
         <v>43203</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="34">
+      <c r="D29" s="43">
         <v>0</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="36">
         <v>1</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="36">
         <v>1</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="36">
         <v>1</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="36">
         <v>1</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="36">
         <v>1</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="43">
         <v>0</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="36">
         <v>1</v>
       </c>
       <c r="O29" s="2"/>
@@ -2593,19 +2593,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="33"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="36"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2617,7 +2617,7 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38">
+      <c r="A31" s="37">
         <v>43204</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -2659,7 +2659,7 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
@@ -2683,35 +2683,35 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="39">
+      <c r="A33" s="38">
         <v>43205</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="33">
+      <c r="D33" s="36">
         <v>1</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="33">
         <v>1</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="33">
         <v>1</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="33">
         <v>1</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="33">
         <v>1</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="33">
         <v>1</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="40">
         <v>0</v>
       </c>
-      <c r="K33" s="57">
+      <c r="K33" s="33">
         <v>1</v>
       </c>
       <c r="O33" s="2"/>
@@ -2725,19 +2725,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="58"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="34"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2749,21 +2749,37 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="37">
         <v>43206</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="D35" s="35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="35">
+        <v>1</v>
+      </c>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
@@ -2775,19 +2791,19 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
@@ -2799,7 +2815,7 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="39">
+      <c r="A37" s="38">
         <v>43207</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -2825,7 +2841,7 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
@@ -2849,7 +2865,7 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38">
+      <c r="A39" s="37">
         <v>43208</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -2875,7 +2891,7 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
@@ -2899,7 +2915,7 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="39">
+      <c r="A41" s="38">
         <v>43209</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -2925,7 +2941,7 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="24" t="s">
         <v>17</v>
       </c>
@@ -2949,7 +2965,7 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
+      <c r="A43" s="37">
         <v>43210</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -2975,7 +2991,7 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
@@ -2999,7 +3015,7 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="39">
+      <c r="A45" s="38">
         <v>43211</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -3025,7 +3041,7 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
@@ -3049,7 +3065,7 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
+      <c r="A47" s="37">
         <v>43212</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -3075,7 +3091,7 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3115,7 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="39">
+      <c r="A49" s="38">
         <v>43213</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -3125,7 +3141,7 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
@@ -3149,7 +3165,7 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38">
+      <c r="A51" s="37">
         <v>43214</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3175,7 +3191,7 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +3215,7 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="39">
+      <c r="A53" s="38">
         <v>43215</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -3225,7 +3241,7 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="24" t="s">
         <v>17</v>
       </c>
@@ -3249,7 +3265,7 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="38">
+      <c r="A55" s="37">
         <v>43216</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -3275,7 +3291,7 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
@@ -3299,7 +3315,7 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="39">
+      <c r="A57" s="38">
         <v>43217</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -3325,7 +3341,7 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
@@ -3349,7 +3365,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+      <c r="A59" s="37">
         <v>43218</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -3375,7 +3391,7 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="38"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
@@ -3399,7 +3415,7 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="39">
+      <c r="A61" s="38">
         <v>43219</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -3425,7 +3441,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
@@ -3449,7 +3465,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="38">
+      <c r="A63" s="37">
         <v>43220</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3475,7 +3491,7 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="23" t="s">
         <v>17</v>
       </c>
@@ -5226,16 +5242,122 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
+  <mergeCells count="148">
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
@@ -5260,113 +5382,15 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5396,18 +5420,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5444,7 +5468,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="44">
+      <c r="E3" s="48">
         <v>43191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -5464,7 +5488,7 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5484,7 +5508,7 @@
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
@@ -5522,7 +5546,7 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="45">
+      <c r="E7" s="49">
         <v>43193</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -5544,7 +5568,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="46"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="30" t="s">
         <v>45</v>
       </c>
@@ -5562,7 +5586,7 @@
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="47">
+      <c r="E9" s="51">
         <v>43196</v>
       </c>
       <c r="F9" s="31" t="s">
@@ -5582,7 +5606,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="48"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="31" t="s">
         <v>52</v>
       </c>
@@ -5602,7 +5626,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="40">
+      <c r="E11" s="44">
         <v>43197</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -5622,7 +5646,7 @@
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="42"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
@@ -5640,7 +5664,7 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
@@ -5718,7 +5742,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="40">
+      <c r="E17" s="44">
         <v>43205</v>
       </c>
       <c r="F17" s="30" t="s">
@@ -5736,7 +5760,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="30" t="s">
         <v>67</v>
       </c>
@@ -6032,17 +6056,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="E1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6441,17 +6465,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -6489,7 +6513,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="57" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -6514,7 +6538,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
@@ -6537,7 +6561,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="58" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -6562,7 +6586,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="54"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="17" t="s">
         <v>37</v>
       </c>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -687,6 +687,51 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>面X2袋、米x2</t>
+    <rPh sb="0" eb="1">
+      <t>mian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔沙子</t>
+    <rPh sb="0" eb="1">
+      <t>pei'kuan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sha'zi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴油</t>
+    <rPh sb="0" eb="1">
+      <t>chai'you</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/419</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用油X1</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong'you</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生姜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -931,7 +976,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,16 +1070,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,16 +1103,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,6 +1149,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A26" zoomScale="86" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,19 +1676,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1669,28 +1726,28 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37">
+      <c r="A3" s="41">
         <v>43190</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="39">
         <v>0</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="39">
         <v>1</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="39">
         <v>1</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="39">
         <v>1</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="39">
         <v>1</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="39">
         <v>1</v>
       </c>
       <c r="I3" s="25"/>
@@ -1707,16 +1764,16 @@
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1731,13 +1788,13 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+      <c r="A5" s="42">
         <v>43191</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="43">
         <v>0</v>
       </c>
       <c r="D5" s="24">
@@ -1749,10 +1806,10 @@
       <c r="F5" s="24">
         <v>0.5</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="43">
         <v>1</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="43">
         <v>0</v>
       </c>
       <c r="I5" s="26"/>
@@ -1769,11 +1826,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -1783,8 +1840,8 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -1799,13 +1856,13 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="41">
         <v>43192</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="23">
@@ -1817,10 +1874,10 @@
       <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="39">
         <v>1</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="39">
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
@@ -1837,11 +1894,11 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="23">
         <v>0.5</v>
       </c>
@@ -1851,8 +1908,8 @@
       <c r="F8" s="23">
         <v>0.5</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -1867,34 +1924,34 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="42">
         <v>43193</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="40">
         <v>0</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>1</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="34">
         <v>1</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>1</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="34">
         <v>1</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="34">
         <v>1</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="34">
         <v>1</v>
       </c>
       <c r="K9" s="26"/>
@@ -1909,18 +1966,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1933,34 +1990,34 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37">
+      <c r="A11" s="41">
         <v>43194</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="39">
         <v>1</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="39">
         <v>1</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="39">
         <v>1</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="39">
         <v>1</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="39">
         <v>1</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="39">
         <v>1</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="39">
         <v>1</v>
       </c>
       <c r="K11" s="25"/>
@@ -1975,18 +2032,18 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="25"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
@@ -1999,7 +2056,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+      <c r="A13" s="42">
         <v>43195</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -2041,7 +2098,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -2081,34 +2138,34 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="41">
         <v>43196</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="39">
         <v>0</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="39">
         <v>1</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="39">
         <v>1</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="39">
         <v>1</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="39">
         <v>1</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="39">
         <v>1</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="39">
         <v>1</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="39">
         <v>1</v>
       </c>
       <c r="K15" s="25"/>
@@ -2123,18 +2180,18 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="25"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
@@ -2147,34 +2204,34 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="42">
         <v>43197</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="43">
         <v>0</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="34">
         <v>1</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="34">
         <v>1</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <v>1</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="43">
         <v>0</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="34">
         <v>1</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <v>1</v>
       </c>
       <c r="K17" s="26">
@@ -2191,18 +2248,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="26">
         <v>0.5</v>
       </c>
@@ -2217,7 +2274,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+      <c r="A19" s="41">
         <v>43198</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2226,28 +2283,28 @@
       <c r="C19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="39">
         <v>1</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="39">
         <v>1</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="39">
         <v>1</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="39">
         <v>1</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="39">
         <v>1</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="39">
         <v>1</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="39">
         <v>1</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="39">
         <v>1</v>
       </c>
       <c r="O19" s="20"/>
@@ -2261,19 +2318,19 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -2285,7 +2342,7 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
+      <c r="A21" s="42">
         <v>43199</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -2294,28 +2351,28 @@
       <c r="C21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>1</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="34">
         <v>1</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <v>1</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="34">
         <v>1</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <v>1</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="34">
         <v>1</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="34">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
@@ -2329,19 +2386,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2353,35 +2410,35 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
+      <c r="A23" s="41">
         <v>43200</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="35">
+      <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="39">
         <v>1</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="39">
         <v>1</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="39">
         <v>1</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="39">
         <v>1</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="39">
         <v>1</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="39">
         <v>1</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="39">
         <v>1</v>
       </c>
       <c r="O23" s="20"/>
@@ -2395,19 +2452,19 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
@@ -2419,35 +2476,35 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="42">
         <v>43201</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="36">
+      <c r="D25" s="34">
         <v>1</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="34">
         <v>1</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="34">
         <v>1</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="34">
         <v>1</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="34">
         <v>1</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="34">
         <v>1</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="34">
         <v>1</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="34">
         <v>1</v>
       </c>
       <c r="O25" s="2"/>
@@ -2461,19 +2518,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2485,35 +2542,35 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37">
+      <c r="A27" s="41">
         <v>43202</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="35">
+      <c r="D27" s="39">
         <v>1</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="39">
         <v>1</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="39">
         <v>1</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="39">
         <v>1</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="39">
         <v>1</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="39">
         <v>1</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="39">
         <v>0</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="39">
         <v>1</v>
       </c>
       <c r="O27" s="20"/>
@@ -2527,19 +2584,19 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
@@ -2551,35 +2608,35 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
+      <c r="A29" s="42">
         <v>43203</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="43">
+      <c r="D29" s="40">
         <v>0</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="34">
         <v>1</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="34">
         <v>1</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="34">
         <v>1</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="34">
         <v>1</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="34">
         <v>1</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="40">
         <v>0</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="34">
         <v>1</v>
       </c>
       <c r="O29" s="2"/>
@@ -2593,19 +2650,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="36"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="34"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2617,35 +2674,35 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="41">
         <v>43204</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="35">
+      <c r="D31" s="39">
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="39">
         <v>1</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="39">
         <v>1</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="39">
         <v>1</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="39">
         <v>1</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="39">
         <v>1</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="39">
         <v>0</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="39">
         <v>1</v>
       </c>
       <c r="O31" s="20"/>
@@ -2659,19 +2716,19 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
@@ -2683,35 +2740,35 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
+      <c r="A33" s="42">
         <v>43205</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>1</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="35">
         <v>1</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="35">
         <v>1</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="35">
         <v>1</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="35">
         <v>1</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="35">
         <v>1</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="37">
         <v>0</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="35">
         <v>1</v>
       </c>
       <c r="O33" s="2"/>
@@ -2725,19 +2782,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="36"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2749,35 +2806,35 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
+      <c r="A35" s="41">
         <v>43206</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="35">
+      <c r="D35" s="39">
         <v>1</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="39">
         <v>1</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="39">
         <v>1</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="39">
         <v>1</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="39">
         <v>1</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="39">
         <v>1</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="39">
         <v>0</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="39">
         <v>1</v>
       </c>
       <c r="O35" s="20"/>
@@ -2791,19 +2848,19 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
@@ -2815,21 +2872,37 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
+      <c r="A37" s="42">
         <v>43207</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="D37" s="34">
+        <v>1</v>
+      </c>
+      <c r="E37" s="35">
+        <v>1</v>
+      </c>
+      <c r="F37" s="35">
+        <v>1</v>
+      </c>
+      <c r="G37" s="35">
+        <v>1</v>
+      </c>
+      <c r="H37" s="35">
+        <v>1</v>
+      </c>
+      <c r="I37" s="35">
+        <v>1</v>
+      </c>
+      <c r="J37" s="37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="35">
+        <v>1</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2841,19 +2914,19 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="36"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2865,21 +2938,37 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="41">
         <v>43208</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="D39" s="39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="25">
+        <v>0.5</v>
+      </c>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="20"/>
@@ -2891,19 +2980,25 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="25">
+        <v>0</v>
+      </c>
+      <c r="J40" s="39"/>
+      <c r="K40" s="25">
+        <v>0</v>
+      </c>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -2915,7 +3010,7 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
+      <c r="A41" s="42">
         <v>43209</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -2941,7 +3036,7 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="24" t="s">
         <v>17</v>
       </c>
@@ -2965,7 +3060,7 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37">
+      <c r="A43" s="41">
         <v>43210</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -2991,7 +3086,7 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
@@ -3015,7 +3110,7 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
+      <c r="A45" s="42">
         <v>43211</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -3041,7 +3136,7 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
@@ -3065,7 +3160,7 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37">
+      <c r="A47" s="41">
         <v>43212</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -3091,7 +3186,7 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
@@ -3115,7 +3210,7 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="38">
+      <c r="A49" s="42">
         <v>43213</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -3141,7 +3236,7 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
@@ -3165,7 +3260,7 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="37">
+      <c r="A51" s="41">
         <v>43214</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3191,7 +3286,7 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
@@ -3215,7 +3310,7 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
+      <c r="A53" s="42">
         <v>43215</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -3241,7 +3336,7 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="24" t="s">
         <v>17</v>
       </c>
@@ -3265,7 +3360,7 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="37">
+      <c r="A55" s="41">
         <v>43216</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -3291,7 +3386,7 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
@@ -3315,7 +3410,7 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="38">
+      <c r="A57" s="42">
         <v>43217</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -3341,7 +3436,7 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
@@ -3365,7 +3460,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="37">
+      <c r="A59" s="41">
         <v>43218</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -3391,7 +3486,7 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
@@ -3415,7 +3510,7 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="38">
+      <c r="A61" s="42">
         <v>43219</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -3441,7 +3536,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
@@ -3465,7 +3560,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="37">
+      <c r="A63" s="41">
         <v>43220</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3491,7 +3586,7 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="37"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="23" t="s">
         <v>17</v>
       </c>
@@ -5242,7 +5337,12 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="161">
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
@@ -5259,13 +5359,12 @@
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="I25:I26"/>
@@ -5274,6 +5373,12 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
@@ -5309,8 +5414,19 @@
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
@@ -5358,11 +5474,15 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="K23:K24"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
@@ -5372,25 +5492,13 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5402,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5420,18 +5528,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5468,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="48">
+      <c r="E3" s="49">
         <v>43191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -5488,7 +5596,7 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5508,7 +5616,7 @@
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
@@ -5546,7 +5654,7 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="49">
+      <c r="E7" s="50">
         <v>43193</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -5568,7 +5676,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="30" t="s">
         <v>45</v>
       </c>
@@ -5586,7 +5694,7 @@
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="51">
+      <c r="E9" s="52">
         <v>43196</v>
       </c>
       <c r="F9" s="31" t="s">
@@ -5606,7 +5714,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="52"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="31" t="s">
         <v>52</v>
       </c>
@@ -5626,7 +5734,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="44">
+      <c r="E11" s="45">
         <v>43197</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -5646,7 +5754,7 @@
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="46"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
@@ -5664,7 +5772,7 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="45"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
@@ -5742,7 +5850,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="44">
+      <c r="E17" s="45">
         <v>43205</v>
       </c>
       <c r="F17" s="30" t="s">
@@ -5760,7 +5868,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="45"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="30" t="s">
         <v>67</v>
       </c>
@@ -5776,9 +5884,15 @@
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="E19" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="31">
+        <v>280</v>
+      </c>
       <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -5788,9 +5902,13 @@
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="31">
+        <v>39</v>
+      </c>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -5800,9 +5918,13 @@
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="31">
+        <v>70</v>
+      </c>
       <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5812,9 +5934,13 @@
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="31">
+        <v>30</v>
+      </c>
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -5824,9 +5950,13 @@
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="31">
+        <v>11</v>
+      </c>
       <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -6017,7 +6147,8 @@
       <c r="A73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E19:E23"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:C1"/>
@@ -6056,17 +6187,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="E1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6465,17 +6596,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -6513,7 +6644,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -6538,7 +6669,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
@@ -6561,7 +6692,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="59" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -6586,7 +6717,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="17" t="s">
         <v>37</v>
       </c>
